--- a/subDM/subNormDM/medidasFiltrosDM.xlsx
+++ b/subDM/subNormDM/medidasFiltrosDM.xlsx
@@ -382,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E162" workbookViewId="0">
-      <selection activeCell="P173" sqref="P173"/>
+    <sheetView tabSelected="1" topLeftCell="M162" workbookViewId="0">
+      <selection activeCell="N174" sqref="N174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/subDM/subNormDM/medidasFiltrosDM.xlsx
+++ b/subDM/subNormDM/medidasFiltrosDM.xlsx
@@ -55,6 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,14 +95,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,44 +387,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M162" workbookViewId="0">
-      <selection activeCell="N174" sqref="N174"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="K171" sqref="K171:M171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="3" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -473,8 +479,11 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4"/>
-      <c r="F4">
-        <v>0.73431343206078536</v>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G4">
         <v>32507.205078125</v>
@@ -518,11 +527,11 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5"/>
-      <c r="E5">
-        <v>-0.28812634997793579</v>
-      </c>
-      <c r="F5">
-        <v>0.7682680004507163</v>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G5">
         <v>20121.55078125</v>
@@ -566,8 +575,11 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6"/>
-      <c r="F6">
-        <v>0.89472076571393244</v>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G6">
         <v>24433.2421875</v>
@@ -611,8 +623,11 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7"/>
-      <c r="F7">
-        <v>0.89778057178471626</v>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G7">
         <v>36950.31640625</v>
@@ -656,11 +671,11 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8"/>
-      <c r="E8">
-        <v>0.1097248862209174</v>
-      </c>
-      <c r="F8">
-        <v>0.75692407969726194</v>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G8">
         <v>36021.114583333343</v>
@@ -704,8 +719,11 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9"/>
-      <c r="F9">
-        <v>0.92917618145780223</v>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G9">
         <v>45460.055989583343</v>
@@ -749,11 +767,11 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10"/>
-      <c r="E10">
-        <v>4.3082404274510058E-2</v>
-      </c>
-      <c r="F10">
-        <v>0.75385341753486057</v>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G10">
         <v>33083.375</v>
@@ -797,11 +815,11 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11"/>
-      <c r="E11">
-        <v>0.220031875427357</v>
-      </c>
-      <c r="F11">
-        <v>0.73378332396148516</v>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G11">
         <v>35717.248697916657</v>
@@ -845,8 +863,11 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12"/>
-      <c r="F12">
-        <v>0.84955027890219226</v>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G12">
         <v>39581.62890625</v>
@@ -890,8 +911,11 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13"/>
-      <c r="F13">
-        <v>0.87893155452951666</v>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G13">
         <v>42886.526041666657</v>
@@ -935,8 +959,11 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14"/>
-      <c r="F14">
-        <v>0.81470485310069363</v>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G14">
         <v>28918.353515625</v>
@@ -980,8 +1007,11 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15"/>
-      <c r="F15">
-        <v>0.9086367526221224</v>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G15">
         <v>59351.729166666657</v>
@@ -1025,11 +1055,11 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16"/>
-      <c r="E16">
-        <v>0.41402435323099951</v>
-      </c>
-      <c r="F16">
-        <v>0.63234425224827362</v>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G16">
         <v>32443.807942708328</v>
@@ -1073,11 +1103,11 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17"/>
-      <c r="E17">
-        <v>-0.96527562779322718</v>
-      </c>
-      <c r="F17">
-        <v>0.78998001123104478</v>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G17">
         <v>39641.727864583343</v>
@@ -1121,8 +1151,11 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18"/>
-      <c r="F18">
-        <v>0.79351458295100663</v>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G18">
         <v>36063.826822916657</v>
@@ -1166,8 +1199,11 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19"/>
-      <c r="F19">
-        <v>0.76923319168275905</v>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G19">
         <v>38982.540364583343</v>
@@ -1211,8 +1247,11 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20"/>
-      <c r="F20">
-        <v>0.84019231241757342</v>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G20">
         <v>34851.460286458343</v>
@@ -1256,8 +1295,11 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21"/>
-      <c r="F21">
-        <v>0.82031833094472006</v>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G21">
         <v>39084.373697916657</v>
@@ -1301,8 +1343,11 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22"/>
-      <c r="F22">
-        <v>0.85685617407363845</v>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G22">
         <v>17465.189127604172</v>
@@ -1346,8 +1391,11 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23"/>
-      <c r="F23">
-        <v>0.86112287751873329</v>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G23">
         <v>21534.001953125</v>
@@ -1391,11 +1439,11 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24"/>
-      <c r="E24">
-        <v>-0.14516027849763649</v>
-      </c>
-      <c r="F24">
-        <v>0.70561531686386936</v>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G24">
         <v>13628.39225260417</v>
@@ -1439,11 +1487,11 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25"/>
-      <c r="E25">
-        <v>-0.54233998389324833</v>
-      </c>
-      <c r="F25">
-        <v>0.79342495379917211</v>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G25">
         <v>142036.609375</v>
@@ -1487,11 +1535,11 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26"/>
-      <c r="E26">
-        <v>6.9538389766359399E-2</v>
-      </c>
-      <c r="F26">
-        <v>0.78704342646502812</v>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G26">
         <v>6282.819986979167</v>
@@ -1535,11 +1583,11 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="E27">
-        <v>5.6220149147974678E-2</v>
-      </c>
-      <c r="F27">
-        <v>0.68293574339680119</v>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G27">
         <v>4783.756184895833</v>
@@ -1583,11 +1631,11 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28"/>
-      <c r="E28">
-        <v>-1.054035749632799</v>
-      </c>
-      <c r="F28">
-        <v>0.757645630931301</v>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G28">
         <v>139206.234375</v>
@@ -1631,11 +1679,11 @@
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29"/>
-      <c r="E29">
-        <v>0.2067675960634803</v>
-      </c>
-      <c r="F29">
-        <v>0.70777425093778545</v>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G29">
         <v>127913.2890625</v>
@@ -1679,8 +1727,11 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30"/>
-      <c r="F30">
-        <v>0.87255427353002113</v>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G30">
         <v>36861.2265625</v>
@@ -1724,11 +1775,11 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31"/>
-      <c r="E31">
-        <v>1.1330259815637931E-3</v>
-      </c>
-      <c r="F31">
-        <v>0.68488890846140416</v>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G31">
         <v>4167.132161458333</v>
@@ -1772,8 +1823,11 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32"/>
-      <c r="F32">
-        <v>0.87567441694990811</v>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G32">
         <v>37584.427083333343</v>
@@ -1817,6 +1871,9 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33"/>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
       <c r="F33">
         <v>0.82497133720695426</v>
       </c>
@@ -1862,8 +1919,8 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34"/>
-      <c r="E34">
-        <v>-0.35684222123670251</v>
+      <c r="E34" s="6">
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0.80042021374230754</v>
@@ -1910,6 +1967,9 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35"/>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
       <c r="F35">
         <v>0.87023173038867552</v>
       </c>
@@ -1955,8 +2015,8 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36"/>
-      <c r="E36">
-        <v>4.4578707612367742E-2</v>
+      <c r="E36" s="6">
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0.66962242338170541</v>
@@ -2003,8 +2063,8 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37"/>
-      <c r="E37">
-        <v>-0.57039398051330448</v>
+      <c r="E37" s="6">
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0.84806089807375307</v>
@@ -2051,8 +2111,8 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38"/>
-      <c r="E38">
-        <v>-0.13913844855680771</v>
+      <c r="E38" s="6">
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0.76648477120158698</v>
@@ -2099,8 +2159,8 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39"/>
-      <c r="E39">
-        <v>0.17562114298332621</v>
+      <c r="E39" s="6">
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0.65549099237984099</v>
@@ -2147,8 +2207,8 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40"/>
-      <c r="E40">
-        <v>-0.6259131277259028</v>
+      <c r="E40" s="6">
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0.8722524895486885</v>
@@ -2195,6 +2255,9 @@
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41"/>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
       <c r="F41">
         <v>0.82439682677471793</v>
       </c>
@@ -2240,6 +2303,9 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42"/>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
       <c r="F42">
         <v>0.83902243232029861</v>
       </c>
@@ -2285,8 +2351,8 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43"/>
-      <c r="E43">
-        <v>0.63726871567489618</v>
+      <c r="E43" s="6">
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0.50507696679206393</v>
@@ -2333,8 +2399,8 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44"/>
-      <c r="E44">
-        <v>-8.5148949665792464E-2</v>
+      <c r="E44" s="6">
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0.82259846343868714</v>
@@ -2381,11 +2447,11 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45"/>
-      <c r="E45">
-        <v>-7.412101604866583E-3</v>
+      <c r="E45" s="6">
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0.73929548863211259</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G45">
         <v>74634.096354166672</v>
@@ -2429,11 +2495,11 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46"/>
-      <c r="E46">
-        <v>-0.16164123403098291</v>
-      </c>
-      <c r="F46">
-        <v>0.8068705035757926</v>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G46">
         <v>130046.140625</v>
@@ -2477,11 +2543,11 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47"/>
-      <c r="E47">
-        <v>-0.57714290228322873</v>
-      </c>
-      <c r="F47">
-        <v>0.85333628809433648</v>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G47">
         <v>16864.825520833328</v>
@@ -2525,11 +2591,11 @@
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48"/>
-      <c r="E48">
-        <v>0.2493760935206783</v>
-      </c>
-      <c r="F48">
-        <v>0.84413568897479763</v>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G48">
         <v>6334.7705078125</v>
@@ -2573,11 +2639,11 @@
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49"/>
-      <c r="E49">
-        <v>0.62435249634231105</v>
-      </c>
-      <c r="F49">
-        <v>0.55998951037050415</v>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G49">
         <v>66140.889322916672</v>
@@ -2621,11 +2687,11 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50"/>
-      <c r="E50">
-        <v>-4.9672553280566092E-2</v>
-      </c>
-      <c r="F50">
-        <v>0.77285673284320688</v>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G50">
         <v>152876.49479166669</v>
@@ -2669,8 +2735,11 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51"/>
-      <c r="F51">
-        <v>0.8604533216898661</v>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G51">
         <v>22379.720703125</v>
@@ -2714,11 +2783,11 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52"/>
-      <c r="E52">
-        <v>-0.95984365529638405</v>
-      </c>
-      <c r="F52">
-        <v>0.74094606423005605</v>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G52">
         <v>22980.912109375</v>
@@ -2762,11 +2831,11 @@
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53"/>
-      <c r="E53">
-        <v>0.110421819188754</v>
-      </c>
-      <c r="F53">
-        <v>0.67881584000603457</v>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G53">
         <v>32218.39453125</v>
@@ -2810,11 +2879,11 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54"/>
-      <c r="E54">
-        <v>-1.5777744645394449</v>
-      </c>
-      <c r="F54">
-        <v>0.78811322072498635</v>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G54">
         <v>86404.895833333328</v>
@@ -2858,11 +2927,11 @@
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55"/>
-      <c r="E55">
-        <v>0.18304188798956139</v>
-      </c>
-      <c r="F55">
-        <v>0.60162760528209669</v>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G55">
         <v>17519.6328125</v>
@@ -2906,8 +2975,8 @@
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56"/>
-      <c r="E56">
-        <v>0.47303290416904081</v>
+      <c r="E56" s="6">
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0.54717538193209569</v>
@@ -2954,6 +3023,9 @@
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57"/>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
       <c r="F57">
         <v>0.79080234077951361</v>
       </c>
@@ -2999,8 +3071,8 @@
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58"/>
-      <c r="E58">
-        <v>6.3789362921271922E-2</v>
+      <c r="E58" s="6">
+        <v>1</v>
       </c>
       <c r="F58">
         <v>0.70364117727296727</v>
@@ -3047,8 +3119,8 @@
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59"/>
-      <c r="E59">
-        <v>-0.50405111275240622</v>
+      <c r="E59" s="6">
+        <v>1</v>
       </c>
       <c r="F59">
         <v>0.83820187756620301</v>
@@ -3095,8 +3167,8 @@
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60"/>
-      <c r="E60">
-        <v>2.191800014664708E-2</v>
+      <c r="E60" s="6">
+        <v>1</v>
       </c>
       <c r="F60">
         <v>0.82205995433903467</v>
@@ -3143,8 +3215,8 @@
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61"/>
-      <c r="E61">
-        <v>8.8963728661790531E-2</v>
+      <c r="E61" s="6">
+        <v>1</v>
       </c>
       <c r="F61">
         <v>0.77123841500127899</v>
@@ -3191,6 +3263,9 @@
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B62"/>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
       <c r="F62">
         <v>0.91579432765226165</v>
       </c>
@@ -3236,8 +3311,8 @@
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63"/>
-      <c r="E63">
-        <v>5.6511335552720393E-2</v>
+      <c r="E63" s="6">
+        <v>1</v>
       </c>
       <c r="F63">
         <v>0.63823244092598808</v>
@@ -3284,6 +3359,9 @@
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64"/>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
       <c r="F64">
         <v>0.85670084458680895</v>
       </c>
@@ -3329,6 +3407,9 @@
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65"/>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
       <c r="F65">
         <v>0.8166191657160331</v>
       </c>
@@ -3374,6 +3455,9 @@
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66"/>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
       <c r="F66">
         <v>0.85583636996865564</v>
       </c>
@@ -3419,8 +3503,8 @@
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67"/>
-      <c r="E67">
-        <v>0.2479465995259181</v>
+      <c r="E67" s="6">
+        <v>1</v>
       </c>
       <c r="F67">
         <v>0.58772326166905353</v>
@@ -3467,6 +3551,9 @@
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68"/>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
       <c r="F68">
         <v>0.83971778324506507</v>
       </c>
@@ -3512,8 +3599,8 @@
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69"/>
-      <c r="E69">
-        <v>9.5418681839841757E-2</v>
+      <c r="E69" s="6">
+        <v>1</v>
       </c>
       <c r="F69">
         <v>0.61402940096958791</v>
@@ -3560,8 +3647,8 @@
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70"/>
-      <c r="E70">
-        <v>-1.109382158911187</v>
+      <c r="E70" s="6">
+        <v>1</v>
       </c>
       <c r="F70">
         <v>0.93061215856094381</v>
@@ -3608,8 +3695,8 @@
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71"/>
-      <c r="E71">
-        <v>0.1367160797497641</v>
+      <c r="E71" s="6">
+        <v>1</v>
       </c>
       <c r="F71">
         <v>0.6119902956380634</v>
@@ -3656,8 +3743,8 @@
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72"/>
-      <c r="E72">
-        <v>-0.68380775240498559</v>
+      <c r="E72" s="6">
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0.80034067564278843</v>
@@ -3704,8 +3791,8 @@
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73"/>
-      <c r="E73">
-        <v>0.15962793259375299</v>
+      <c r="E73" s="6">
+        <v>1</v>
       </c>
       <c r="F73">
         <v>0.72075770041605136</v>
@@ -3752,8 +3839,8 @@
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74"/>
-      <c r="E74">
-        <v>-0.10523496149935441</v>
+      <c r="E74" s="6">
+        <v>1</v>
       </c>
       <c r="F74">
         <v>0.71770296404874745</v>
@@ -3800,8 +3887,8 @@
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75"/>
-      <c r="E75">
-        <v>0.1095126358617715</v>
+      <c r="E75" s="6">
+        <v>1</v>
       </c>
       <c r="F75">
         <v>0.64964008406948071</v>
@@ -3848,8 +3935,8 @@
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76"/>
-      <c r="E76">
-        <v>0.58873187964649043</v>
+      <c r="E76" s="6">
+        <v>1</v>
       </c>
       <c r="F76">
         <v>0.61074560362630015</v>
@@ -3896,8 +3983,11 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77"/>
+      <c r="E77" s="6">
+        <v>1</v>
+      </c>
       <c r="F77">
-        <v>0.96405136734096053</v>
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G77">
         <v>35142.32421875</v>
@@ -3941,11 +4031,11 @@
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78"/>
-      <c r="E78">
-        <v>0.13607601909411751</v>
-      </c>
-      <c r="F78">
-        <v>0.61842286226327525</v>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G78">
         <v>97196.388020833328</v>
@@ -3989,11 +4079,11 @@
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79"/>
-      <c r="E79">
-        <v>-0.54302494566505599</v>
-      </c>
-      <c r="F79">
-        <v>0.9094038482265826</v>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G79">
         <v>29042.604817708328</v>
@@ -4037,11 +4127,11 @@
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80"/>
-      <c r="E80">
-        <v>1.1209735587670929E-2</v>
-      </c>
-      <c r="F80">
-        <v>0.64745728867463348</v>
+      <c r="E80" s="6">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G80">
         <v>111906.0234375</v>
@@ -4085,8 +4175,11 @@
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B81"/>
-      <c r="F81">
-        <v>0.9495163366459286</v>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G81">
         <v>42726.1796875</v>
@@ -4130,11 +4223,11 @@
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B82"/>
-      <c r="E82">
-        <v>0.1245562933886388</v>
-      </c>
-      <c r="F82">
-        <v>0.64038183239312785</v>
+      <c r="E82" s="6">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G82">
         <v>45527.58203125</v>
@@ -4178,11 +4271,11 @@
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B83"/>
-      <c r="E83">
-        <v>-6.2132928991558173E-2</v>
-      </c>
-      <c r="F83">
-        <v>0.63244218192668933</v>
+      <c r="E83" s="6">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G83">
         <v>81665.341145833328</v>
@@ -4226,8 +4319,11 @@
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84"/>
-      <c r="F84">
-        <v>0.8918295450270437</v>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G84">
         <v>35926.788411458343</v>
@@ -4271,11 +4367,11 @@
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B85"/>
-      <c r="E85">
-        <v>-0.2375562521581002</v>
-      </c>
-      <c r="F85">
-        <v>0.74161103735515632</v>
+      <c r="E85" s="6">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G85">
         <v>63780.540364583343</v>
@@ -4319,8 +4415,11 @@
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B86"/>
-      <c r="F86">
-        <v>0.80103079544772271</v>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G86">
         <v>20165.832682291672</v>
@@ -4364,8 +4463,11 @@
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B87"/>
-      <c r="F87">
-        <v>0.84367899567698168</v>
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G87">
         <v>30350.911458333328</v>
@@ -4409,11 +4511,11 @@
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B88"/>
-      <c r="E88">
-        <v>0.2541632866694557</v>
-      </c>
-      <c r="F88">
-        <v>0.75271756799570844</v>
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G88">
         <v>6272.917317708333</v>
@@ -4457,11 +4559,11 @@
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B89"/>
-      <c r="E89">
-        <v>-5.6407654995026542E-2</v>
-      </c>
-      <c r="F89">
-        <v>0.66438986387903209</v>
+      <c r="E89" s="6">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G89">
         <v>74526.333333333328</v>
@@ -4505,11 +4607,11 @@
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B90"/>
-      <c r="E90">
-        <v>0.96713778801387418</v>
-      </c>
-      <c r="F90">
-        <v>0.58979035355593357</v>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G90">
         <v>74418.4140625</v>
@@ -4553,8 +4655,11 @@
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B91"/>
-      <c r="F91">
-        <v>0.88683722503117557</v>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G91">
         <v>14158.470703125</v>
@@ -4598,11 +4703,11 @@
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B92"/>
-      <c r="E92">
-        <v>-2.861359846668235E-2</v>
-      </c>
-      <c r="F92">
-        <v>0.73556312947128166</v>
+      <c r="E92" s="6">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G92">
         <v>5839.5185546875</v>
@@ -4646,11 +4751,11 @@
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B93"/>
-      <c r="E93">
-        <v>-8.7401401150816696E-2</v>
-      </c>
-      <c r="F93">
-        <v>0.76756174798196464</v>
+      <c r="E93" s="6">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="G93">
         <v>161763.57291666669</v>
@@ -4694,8 +4799,8 @@
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B94"/>
-      <c r="E94">
-        <v>0.45743532972884282</v>
+      <c r="E94" s="6">
+        <v>1</v>
       </c>
       <c r="F94">
         <v>0.5676766493415899</v>
@@ -4742,8 +4847,8 @@
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B95"/>
-      <c r="E95">
-        <v>3.4787513234023813E-2</v>
+      <c r="E95" s="6">
+        <v>1</v>
       </c>
       <c r="F95">
         <v>0.74140003916673392</v>
@@ -4790,8 +4895,8 @@
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96"/>
-      <c r="E96">
-        <v>0.34413647048112628</v>
+      <c r="E96" s="6">
+        <v>1</v>
       </c>
       <c r="F96">
         <v>0.70444024638356173</v>
@@ -4838,8 +4943,8 @@
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B97"/>
-      <c r="E97">
-        <v>-0.42965624621073489</v>
+      <c r="E97" s="6">
+        <v>1</v>
       </c>
       <c r="F97">
         <v>0.8780406016466975</v>
@@ -4886,8 +4991,8 @@
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98"/>
-      <c r="E98">
-        <v>4.2680144857336892E-2</v>
+      <c r="E98" s="6">
+        <v>1</v>
       </c>
       <c r="F98">
         <v>0.67356509756950489</v>
@@ -4934,8 +5039,8 @@
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B99"/>
-      <c r="E99">
-        <v>-0.18944527741956491</v>
+      <c r="E99" s="6">
+        <v>1</v>
       </c>
       <c r="F99">
         <v>0.78588122954908102</v>
@@ -4982,8 +5087,8 @@
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B100"/>
-      <c r="E100">
-        <v>2.1997606499098109E-2</v>
+      <c r="E100" s="6">
+        <v>1</v>
       </c>
       <c r="F100">
         <v>0.73960409764284341</v>
@@ -5030,8 +5135,8 @@
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B101"/>
-      <c r="E101">
-        <v>7.887779077580323E-2</v>
+      <c r="E101" s="6">
+        <v>1</v>
       </c>
       <c r="F101">
         <v>0.70463247077240598</v>
@@ -5078,8 +5183,8 @@
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B102"/>
-      <c r="E102">
-        <v>-0.58661103115635649</v>
+      <c r="E102" s="6">
+        <v>1</v>
       </c>
       <c r="F102">
         <v>0.86289007928863815</v>
@@ -5126,8 +5231,8 @@
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B103"/>
-      <c r="E103">
-        <v>0.1060914686196122</v>
+      <c r="E103" s="6">
+        <v>1</v>
       </c>
       <c r="F103">
         <v>0.62733258941682479</v>
@@ -5174,8 +5279,8 @@
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B104"/>
-      <c r="E104">
-        <v>-1.0384847057619999</v>
+      <c r="E104" s="6">
+        <v>1</v>
       </c>
       <c r="F104">
         <v>0.80827774456846568</v>
@@ -5222,8 +5327,8 @@
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B105"/>
-      <c r="E105">
-        <v>-0.31482022051899111</v>
+      <c r="E105" s="6">
+        <v>1</v>
       </c>
       <c r="F105">
         <v>0.80588749392971171</v>
@@ -5270,6 +5375,9 @@
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B106"/>
+      <c r="E106" s="6">
+        <v>1</v>
+      </c>
       <c r="F106">
         <v>0.83438141651694253</v>
       </c>
@@ -5315,8 +5423,8 @@
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B107"/>
-      <c r="E107">
-        <v>-0.96893955184354019</v>
+      <c r="E107" s="6">
+        <v>1</v>
       </c>
       <c r="F107">
         <v>0.82343441828737662</v>
@@ -5363,8 +5471,8 @@
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B108"/>
-      <c r="E108">
-        <v>-0.96380702106137739</v>
+      <c r="E108" s="6">
+        <v>1</v>
       </c>
       <c r="F108">
         <v>0.85671353940254447</v>
@@ -5411,8 +5519,8 @@
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B109"/>
-      <c r="E109">
-        <v>-0.85343826831892733</v>
+      <c r="E109" s="6">
+        <v>1</v>
       </c>
       <c r="F109">
         <v>0.80199026024554354</v>
@@ -5459,6 +5567,9 @@
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B110"/>
+      <c r="E110" s="6">
+        <v>1</v>
+      </c>
       <c r="F110">
         <v>0.76047745486619756</v>
       </c>
@@ -5504,8 +5615,8 @@
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B111"/>
-      <c r="E111">
-        <v>0.66357703408324076</v>
+      <c r="E111" s="6">
+        <v>1</v>
       </c>
       <c r="F111">
         <v>0.50913312956635448</v>
@@ -5552,8 +5663,8 @@
     </row>
     <row r="112" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B112"/>
-      <c r="E112">
-        <v>-2.5542281243007632</v>
+      <c r="E112" s="6">
+        <v>1</v>
       </c>
       <c r="F112">
         <v>0.80740323904873079</v>
@@ -5600,6 +5711,9 @@
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B113"/>
+      <c r="E113" s="6">
+        <v>1</v>
+      </c>
       <c r="F113">
         <v>0.85855296248213642</v>
       </c>
@@ -5645,8 +5759,8 @@
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B114"/>
-      <c r="E114">
-        <v>0.17088319466683119</v>
+      <c r="E114" s="6">
+        <v>1</v>
       </c>
       <c r="F114">
         <v>0.88230484538317389</v>
@@ -5693,6 +5807,9 @@
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B115"/>
+      <c r="E115" s="6">
+        <v>1</v>
+      </c>
       <c r="F115">
         <v>0.9185189698505285</v>
       </c>
@@ -5738,8 +5855,8 @@
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B116"/>
-      <c r="E116">
-        <v>-0.87367069335812164</v>
+      <c r="E116" s="6">
+        <v>1</v>
       </c>
       <c r="F116">
         <v>0.73398080983322689</v>
@@ -5786,8 +5903,8 @@
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B117"/>
-      <c r="E117">
-        <v>-0.59700181298942712</v>
+      <c r="E117" s="6">
+        <v>1</v>
       </c>
       <c r="F117">
         <v>0.85344886023563316</v>
@@ -5834,8 +5951,8 @@
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B118"/>
-      <c r="E118">
-        <v>0.13616514669767901</v>
+      <c r="E118" s="6">
+        <v>1</v>
       </c>
       <c r="F118">
         <v>0.64401563073437496</v>
@@ -5882,6 +5999,9 @@
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B119"/>
+      <c r="E119" s="6">
+        <v>1</v>
+      </c>
       <c r="F119">
         <v>0.86790500593475983</v>
       </c>
@@ -5927,8 +6047,8 @@
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B120"/>
-      <c r="E120">
-        <v>1.8298283275481341E-2</v>
+      <c r="E120" s="6">
+        <v>1</v>
       </c>
       <c r="F120">
         <v>0.63910818563149796</v>
@@ -5975,8 +6095,8 @@
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B121"/>
-      <c r="E121">
-        <v>-3.2346016322751393E-2</v>
+      <c r="E121" s="6">
+        <v>1</v>
       </c>
       <c r="F121">
         <v>0.64833509642403597</v>
@@ -6023,6 +6143,9 @@
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B122"/>
+      <c r="E122" s="6">
+        <v>1</v>
+      </c>
       <c r="F122">
         <v>0.92366057341922636</v>
       </c>
@@ -6068,6 +6191,9 @@
     </row>
     <row r="123" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B123"/>
+      <c r="E123" s="6">
+        <v>1</v>
+      </c>
       <c r="F123">
         <v>0.86639144733438689</v>
       </c>
@@ -6113,8 +6239,8 @@
     </row>
     <row r="124" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B124"/>
-      <c r="E124">
-        <v>0.23417984354938939</v>
+      <c r="E124" s="6">
+        <v>1</v>
       </c>
       <c r="F124">
         <v>0.61581768558196448</v>
@@ -6161,8 +6287,8 @@
     </row>
     <row r="125" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B125"/>
-      <c r="E125">
-        <v>-0.1819202615892343</v>
+      <c r="E125" s="6">
+        <v>1</v>
       </c>
       <c r="F125">
         <v>0.8113176243750323</v>
@@ -6209,8 +6335,8 @@
     </row>
     <row r="126" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B126"/>
-      <c r="E126">
-        <v>0.2318613247540724</v>
+      <c r="E126" s="6">
+        <v>1</v>
       </c>
       <c r="F126">
         <v>0.66476753351086015</v>
@@ -6257,6 +6383,9 @@
     </row>
     <row r="127" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B127"/>
+      <c r="E127" s="6">
+        <v>1</v>
+      </c>
       <c r="F127">
         <v>0.75406402388934468</v>
       </c>
@@ -6302,8 +6431,8 @@
     </row>
     <row r="128" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B128"/>
-      <c r="E128">
-        <v>2.3393653939951398E-2</v>
+      <c r="E128" s="6">
+        <v>1</v>
       </c>
       <c r="F128">
         <v>0.68536777902050094</v>
@@ -6350,8 +6479,8 @@
     </row>
     <row r="129" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B129"/>
-      <c r="E129">
-        <v>-0.98080322079029825</v>
+      <c r="E129" s="6">
+        <v>1</v>
       </c>
       <c r="F129">
         <v>0.73335966784975726</v>
@@ -6398,8 +6527,8 @@
     </row>
     <row r="130" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B130"/>
-      <c r="E130">
-        <v>-0.98874913609677639</v>
+      <c r="E130" s="6">
+        <v>1</v>
       </c>
       <c r="F130">
         <v>0.82866505573711935</v>
@@ -6446,8 +6575,8 @@
     </row>
     <row r="131" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B131"/>
-      <c r="E131">
-        <v>3.0993653844991181E-2</v>
+      <c r="E131" s="6">
+        <v>1</v>
       </c>
       <c r="F131">
         <v>0.65882907117163536</v>
@@ -6494,8 +6623,8 @@
     </row>
     <row r="132" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B132"/>
-      <c r="E132">
-        <v>-1.004580638690161</v>
+      <c r="E132" s="6">
+        <v>1</v>
       </c>
       <c r="F132">
         <v>0.82247830282812406</v>
@@ -6542,8 +6671,8 @@
     </row>
     <row r="133" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B133"/>
-      <c r="E133">
-        <v>-0.55856280891367105</v>
+      <c r="E133" s="6">
+        <v>1</v>
       </c>
       <c r="F133">
         <v>0.75867806400734039</v>
@@ -6590,11 +6719,11 @@
     </row>
     <row r="134" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B134"/>
-      <c r="E134">
-        <v>7.6718614796360456E-3</v>
+      <c r="E134" s="6">
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>0.69586861865816674</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G134">
         <v>38854.88671875</v>
@@ -6638,11 +6767,11 @@
     </row>
     <row r="135" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B135"/>
-      <c r="E135">
-        <v>-0.28270357792531242</v>
-      </c>
-      <c r="F135">
-        <v>0.81738660133137309</v>
+      <c r="E135" s="6">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G135">
         <v>48634.614583333343</v>
@@ -6686,11 +6815,11 @@
     </row>
     <row r="136" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B136"/>
-      <c r="E136">
-        <v>-2.1495081436831449E-2</v>
-      </c>
-      <c r="F136">
-        <v>0.84344776739084848</v>
+      <c r="E136" s="6">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G136">
         <v>56931.15625</v>
@@ -6734,11 +6863,11 @@
     </row>
     <row r="137" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B137"/>
-      <c r="E137">
-        <v>-0.82933956447925228</v>
-      </c>
-      <c r="F137">
-        <v>0.80992791407661435</v>
+      <c r="E137" s="6">
+        <v>1</v>
+      </c>
+      <c r="F137" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G137">
         <v>39286.58203125</v>
@@ -6782,11 +6911,11 @@
     </row>
     <row r="138" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B138"/>
-      <c r="E138">
-        <v>5.8132980258494428E-2</v>
-      </c>
-      <c r="F138">
-        <v>0.74577943070419328</v>
+      <c r="E138" s="6">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G138">
         <v>48076.731770833343</v>
@@ -6830,8 +6959,11 @@
     </row>
     <row r="139" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B139"/>
-      <c r="F139">
-        <v>0.80098667828354098</v>
+      <c r="E139" s="6">
+        <v>1</v>
+      </c>
+      <c r="F139" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G139">
         <v>37933.7421875</v>
@@ -6875,11 +7007,11 @@
     </row>
     <row r="140" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B140"/>
-      <c r="E140">
-        <v>0.94344898103974617</v>
-      </c>
-      <c r="F140">
-        <v>0.70802663640296326</v>
+      <c r="E140" s="6">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G140">
         <v>38578.51171875</v>
@@ -6923,11 +7055,11 @@
     </row>
     <row r="141" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B141"/>
-      <c r="E141">
-        <v>-5.2291222765937187E-2</v>
-      </c>
-      <c r="F141">
-        <v>0.83613352198828661</v>
+      <c r="E141" s="6">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G141">
         <v>31850.604166666672</v>
@@ -6971,11 +7103,11 @@
     </row>
     <row r="142" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B142"/>
-      <c r="E142">
-        <v>0.46641112708353533</v>
-      </c>
-      <c r="F142">
-        <v>0.64952990091618235</v>
+      <c r="E142" s="6">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G142">
         <v>29472.539713541672</v>
@@ -7019,11 +7151,11 @@
     </row>
     <row r="143" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B143"/>
-      <c r="E143">
-        <v>0.21228725625270309</v>
-      </c>
-      <c r="F143">
-        <v>0.68696833634873833</v>
+      <c r="E143" s="6">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G143">
         <v>34281.245442708343</v>
@@ -7067,11 +7199,11 @@
     </row>
     <row r="144" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B144"/>
-      <c r="E144">
-        <v>-0.1037966184378918</v>
-      </c>
-      <c r="F144">
-        <v>0.74208670738018667</v>
+      <c r="E144" s="6">
+        <v>1</v>
+      </c>
+      <c r="F144" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G144">
         <v>69453.703125</v>
@@ -7115,8 +7247,11 @@
     </row>
     <row r="145" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B145"/>
-      <c r="F145">
-        <v>0.73697090543043908</v>
+      <c r="E145" s="6">
+        <v>1</v>
+      </c>
+      <c r="F145" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G145">
         <v>61948.584635416657</v>
@@ -7160,8 +7295,11 @@
     </row>
     <row r="146" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B146"/>
-      <c r="F146">
-        <v>0.72267276847535111</v>
+      <c r="E146" s="6">
+        <v>1</v>
+      </c>
+      <c r="F146" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G146">
         <v>68823.786458333328</v>
@@ -7205,8 +7343,11 @@
     </row>
     <row r="147" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B147"/>
-      <c r="F147">
-        <v>0.78430350805313609</v>
+      <c r="E147" s="6">
+        <v>1</v>
+      </c>
+      <c r="F147" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G147">
         <v>63814.235677083343</v>
@@ -7250,8 +7391,11 @@
     </row>
     <row r="148" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B148"/>
-      <c r="F148">
-        <v>0.78560668351071705</v>
+      <c r="E148" s="6">
+        <v>1</v>
+      </c>
+      <c r="F148" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G148">
         <v>60270.1796875</v>
@@ -7295,8 +7439,11 @@
     </row>
     <row r="149" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B149"/>
-      <c r="F149">
-        <v>0.84189843781465357</v>
+      <c r="E149" s="6">
+        <v>1</v>
+      </c>
+      <c r="F149" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G149">
         <v>65384.240885416657</v>
@@ -7340,8 +7487,11 @@
     </row>
     <row r="150" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B150"/>
-      <c r="F150">
-        <v>0.84700960309208706</v>
+      <c r="E150" s="6">
+        <v>1</v>
+      </c>
+      <c r="F150" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G150">
         <v>68234.518229166672</v>
@@ -7385,8 +7535,11 @@
     </row>
     <row r="151" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B151"/>
-      <c r="F151">
-        <v>0.83724237467423002</v>
+      <c r="E151" s="6">
+        <v>1</v>
+      </c>
+      <c r="F151" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G151">
         <v>17090.592122395828</v>
@@ -7430,8 +7583,11 @@
     </row>
     <row r="152" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B152"/>
-      <c r="F152">
-        <v>0.85718361939150445</v>
+      <c r="E152" s="6">
+        <v>1</v>
+      </c>
+      <c r="F152" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G152">
         <v>22441.421875</v>
@@ -7475,8 +7631,11 @@
     </row>
     <row r="153" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B153"/>
-      <c r="F153">
-        <v>0.78370144338512315</v>
+      <c r="E153" s="6">
+        <v>1</v>
+      </c>
+      <c r="F153" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G153">
         <v>20195.774088541672</v>
@@ -7520,11 +7679,11 @@
     </row>
     <row r="154" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B154"/>
-      <c r="E154">
-        <v>1.7647556022816759E-3</v>
-      </c>
-      <c r="F154">
-        <v>0.90525425978282181</v>
+      <c r="E154" s="6">
+        <v>1</v>
+      </c>
+      <c r="F154" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G154">
         <v>181841.36979166669</v>
@@ -7568,11 +7727,11 @@
     </row>
     <row r="155" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B155"/>
-      <c r="E155">
-        <v>2.2033765713741719E-2</v>
-      </c>
-      <c r="F155">
-        <v>0.92055474036914087</v>
+      <c r="E155" s="6">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G155">
         <v>157467.265625</v>
@@ -7616,11 +7775,11 @@
     </row>
     <row r="156" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B156"/>
-      <c r="E156">
-        <v>4.4818604911863763E-2</v>
-      </c>
-      <c r="F156">
-        <v>0.92728266657044711</v>
+      <c r="E156" s="6">
+        <v>1</v>
+      </c>
+      <c r="F156" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G156">
         <v>181130.80208333331</v>
@@ -7664,8 +7823,11 @@
     </row>
     <row r="157" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B157"/>
-      <c r="F157">
-        <v>0.91530329981364622</v>
+      <c r="E157" s="6">
+        <v>1</v>
+      </c>
+      <c r="F157" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G157">
         <v>9594.7561848958339</v>
@@ -7709,8 +7871,11 @@
     </row>
     <row r="158" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B158"/>
-      <c r="F158">
-        <v>0.91511967362959401</v>
+      <c r="E158" s="6">
+        <v>1</v>
+      </c>
+      <c r="F158" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G158">
         <v>9814.0006510416661</v>
@@ -7754,8 +7919,11 @@
     </row>
     <row r="159" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B159"/>
-      <c r="F159">
-        <v>0.90065988048915335</v>
+      <c r="E159" s="6">
+        <v>1</v>
+      </c>
+      <c r="F159" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G159">
         <v>9202.2317708333339</v>
@@ -7799,8 +7967,11 @@
     </row>
     <row r="160" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B160"/>
-      <c r="F160">
-        <v>0.94042415046815209</v>
+      <c r="E160" s="6">
+        <v>1</v>
+      </c>
+      <c r="F160" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G160">
         <v>10002.17740885417</v>
@@ -7844,8 +8015,11 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B161"/>
-      <c r="F161">
-        <v>0.94446459681384576</v>
+      <c r="E161" s="6">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G161">
         <v>8641.7389322916661</v>
@@ -7892,8 +8066,8 @@
       <c r="E162">
         <v>4.865770046957401E-2</v>
       </c>
-      <c r="F162">
-        <v>0.92285138238102937</v>
+      <c r="F162" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G162">
         <v>67895.2578125</v>
@@ -7940,8 +8114,8 @@
       <c r="E163">
         <v>5.0151199938495428E-2</v>
       </c>
-      <c r="F163">
-        <v>0.922697989536991</v>
+      <c r="F163" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G163">
         <v>67888.162760416672</v>
@@ -7988,8 +8162,8 @@
       <c r="E164">
         <v>8.6818551822012757E-2</v>
       </c>
-      <c r="F164">
-        <v>0.92016564698169401</v>
+      <c r="F164" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G164">
         <v>67423.85546875</v>
@@ -8036,8 +8210,8 @@
       <c r="E165">
         <v>8.8088193632199677E-2</v>
       </c>
-      <c r="F165">
-        <v>0.92013805579562757</v>
+      <c r="F165" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G165">
         <v>67423.09375</v>
@@ -8084,8 +8258,8 @@
       <c r="E166">
         <v>0.1119382322333901</v>
       </c>
-      <c r="F166">
-        <v>0.91399804754586889</v>
+      <c r="F166" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G166">
         <v>68266.66015625</v>
@@ -8132,8 +8306,8 @@
       <c r="E167">
         <v>0.1132297891924209</v>
       </c>
-      <c r="F167">
-        <v>0.91417647928594292</v>
+      <c r="F167" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G167">
         <v>68243.859375</v>
@@ -8180,8 +8354,8 @@
       <c r="E168">
         <v>0.60943415690263969</v>
       </c>
-      <c r="F168">
-        <v>0.65864826551042499</v>
+      <c r="F168" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G168">
         <v>72754.1015625</v>
@@ -8228,8 +8402,8 @@
       <c r="E169">
         <v>0.81688681688235265</v>
       </c>
-      <c r="F169">
-        <v>0.68524109720811066</v>
+      <c r="F169" s="3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G169">
         <v>74481.87109375</v>
@@ -8272,34 +8446,34 @@
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B171" s="3"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="3" t="s">
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="3" t="s">
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L171" s="4"/>
-      <c r="M171" s="4"/>
-      <c r="N171" s="3" t="s">
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O171" s="4"/>
-      <c r="P171" s="4"/>
-      <c r="Q171" s="3" t="s">
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R171" s="4"/>
-      <c r="S171" s="4"/>
+      <c r="R171" s="5"/>
+      <c r="S171" s="5"/>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
@@ -8356,13 +8530,13 @@
         <v>8</v>
       </c>
       <c r="B173"/>
-      <c r="E173">
-        <f>AVERAGE(E4:E80)</f>
-        <v>-0.1166678392037952</v>
-      </c>
-      <c r="F173">
-        <f>AVERAGE(F4:F80)</f>
-        <v>0.77241206838992937</v>
+      <c r="E173" s="6">
+        <f>AVERAGE(E4:E169)</f>
+        <v>0.96340484723537978</v>
+      </c>
+      <c r="F173" s="6">
+        <f>AVERAGE(F4:F169)</f>
+        <v>0.33374627145373809</v>
       </c>
       <c r="G173">
         <f>AVERAGE(G4:G169)</f>
@@ -8424,11 +8598,11 @@
       <c r="B174"/>
       <c r="E174">
         <f>_xlfn.STDEV.S(E4:E80)</f>
-        <v>0.47055735335969234</v>
+        <v>0</v>
       </c>
       <c r="F174">
         <f>_xlfn.STDEV.S(F4:F80)</f>
-        <v>0.10252951516070982</v>
+        <v>0.38341909358625137</v>
       </c>
       <c r="G174">
         <f>_xlfn.STDEV.S(G4:G169)</f>
